--- a/biology/Médecine/Ostéopétrose/Ostéopétrose.xlsx
+++ b/biology/Médecine/Ostéopétrose/Ostéopétrose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ost%C3%A9op%C3%A9trose</t>
+          <t>Ostéopétrose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ostéopétrose, connue aussi sous le nom de maladie d'Albers-Schönberg et des « os de marbre », est apparemment une maladie héréditaire (mutation du gène CLCN7) de l'os caractérisée par un dysfonctionnement des ostéoclastes.
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ost%C3%A9op%C3%A9trose</t>
+          <t>Ostéopétrose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,7 +531,9 @@
           <t>Ostéopétrose maligne infantile</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C'est une maladie entrainant le décès de l'enfant avant 10 ans en l'absence de traitement.
 L'enfant présente un nanisme sévère avec une densité minérale osseuse extrêmement élevée et une hypercondensation de l'os en radiologie.
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ost%C3%A9op%C3%A9trose</t>
+          <t>Ostéopétrose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,9 +569,11 @@
           <t>Ostéopétrose induite par les biphosphonates</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bisphosphonates, des molécules indiquées dans le traitement de l'ostéoporose, peuvent être impliqués dans l'ostéopétrose[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bisphosphonates, des molécules indiquées dans le traitement de l'ostéoporose, peuvent être impliqués dans l'ostéopétrose.
 </t>
         </is>
       </c>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ost%C3%A9op%C3%A9trose</t>
+          <t>Ostéopétrose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,6 +603,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ost%C3%A9op%C3%A9trose</t>
+          <t>Ostéopétrose</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Prothèse totale de hanche</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La prothèse de hanche (dans cette observation, prothèse bilatérale, coxa vara et non consolidation sous-trochantérienne du fémur) constitue une opération de sauvetage fonctionnelle chez les sujets atteints de maladie d'Albers-Schönberg (Wodecki P, Nizard R and Witvoet J., 0ct 1998).
 Dans un second cas, PTH unilatérale, chez un jeune sujet souffrant de la maladie des "os de marbre" (non consolidation du col du fémur) les auteurs (Schoierer O and Hoffmann R., septembre 2007) décrivent en détail options et techniques opératoires sur de tels os.</t>
